--- a/src/Pickles/MIL_pickles/Output/AN180_TestScript_All.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN180_TestScript_All.xlsx
@@ -2324,7 +2324,7 @@
     <x:t>SeeWhatsNew</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR029, @UR027, @Analysis, @DesktopOnly</x:t>
+    <x:t>@FR, @FR029, @UR027, @Labelling, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>SeeWhatsNewOnStartup</x:t>
@@ -4536,7 +4536,7 @@
     <x:t>the caries ROIs direction is flipped horizontally</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR027, @DesktopOnly, @Analysis</x:t>
+    <x:t>@UR, @UR027, @DesktopOnly, @Labelling</x:t>
   </x:si>
   <x:si>
     <x:t>As a user
